--- a/communication_python/Verify_comm100.xlsx
+++ b/communication_python/Verify_comm100.xlsx
@@ -450,10 +450,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.447297</v>
+        <v>0.347428</v>
       </c>
       <c r="C2" t="n">
-        <v>0.70746</v>
+        <v>1.4397</v>
       </c>
       <c r="D2" t="n">
         <v>6</v>
